--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_Basic Carrier_2024-1" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2025-01-12" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>No.</t>
   </si>
@@ -100,6 +100,24 @@
     <t>4</t>
   </si>
   <si>
+    <t>BSMD0603-075-6V</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0603</t>
+  </si>
+  <si>
+    <t>BHFUSE(佰宏)</t>
+  </si>
+  <si>
+    <t>C914092</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>XGS-PB2012UB-02</t>
   </si>
   <si>
@@ -112,7 +130,7 @@
     <t>C9900021489</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Header8PX2</t>
@@ -127,7 +145,25 @@
     <t>C9900112582</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>WNM2020-3/TR-VB</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>VBsemi(微碧半导体)</t>
+  </si>
+  <si>
+    <t>C7463694</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>680Ω</t>
@@ -148,7 +184,7 @@
     <t>C17798</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>100R排阻-4D03</t>
@@ -163,7 +199,7 @@
     <t>C9900011903</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>RP2040-Tiny</t>
@@ -179,6 +215,24 @@
   </si>
   <si>
     <t>C7437606</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>SK-3293S</t>
+  </si>
+  <si>
+    <t>VSEL</t>
+  </si>
+  <si>
+    <t>SW-SMD_SK-3293S</t>
+  </si>
+  <si>
+    <t>XKB Connectivity(中国星坤)</t>
+  </si>
+  <si>
+    <t>C466006</t>
   </si>
 </sst>
 </file>
@@ -555,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -715,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -726,31 +780,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -758,31 +812,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -790,28 +844,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>49</v>
@@ -837,23 +891,119 @@
         <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_PCB1_2025-01-12" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2026-02-13" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -46,6 +46,30 @@
     <t>1</t>
   </si>
   <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>CL05A105KO5NNNC</t>
+  </si>
+  <si>
+    <t>SAMSUNG(三星)</t>
+  </si>
+  <si>
+    <t>C29266</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Test-Point</t>
   </si>
   <si>
@@ -58,7 +82,7 @@
     <t/>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>1N4148WS</t>
@@ -76,16 +100,13 @@
     <t>C2128</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>SM06B-SRSS-TB(LF)(SN)</t>
   </si>
   <si>
-    <t>DISP,EXP,RGB_EXP</t>
+    <t>DISP</t>
   </si>
   <si>
     <t>CONN-SMD_SM06B-SRSS-TB-LF-SN</t>
@@ -97,7 +118,7 @@
     <t>C160405</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>BSMD0603-075-6V</t>
@@ -115,13 +136,13 @@
     <t>C914092</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>XGS-PB2012UB-02</t>
   </si>
   <si>
-    <t>LED1</t>
+    <t>LED</t>
   </si>
   <si>
     <t>LED0805-RD_BLUE</t>
@@ -130,7 +151,7 @@
     <t>C9900021489</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Header8PX2</t>
@@ -145,31 +166,34 @@
     <t>C9900112582</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>WNM2020-3/TR-VB</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>VBsemi(微碧半导体)</t>
-  </si>
-  <si>
-    <t>C7463694</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>YAGEO(国巨)</t>
+  </si>
+  <si>
+    <t>C60491</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>680Ω</t>
   </si>
   <si>
-    <t>R1</t>
+    <t>R2</t>
   </si>
   <si>
     <t>R0805</t>
@@ -184,7 +208,25 @@
     <t>C17798</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>IPCW100W13NWS1R</t>
+  </si>
+  <si>
+    <t>RGB_EXP</t>
+  </si>
+  <si>
+    <t>CONN-SMD_3P-P1.00_INCP_IPCW100W13NWS1R</t>
+  </si>
+  <si>
+    <t>INCP</t>
+  </si>
+  <si>
+    <t>C4943258</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>100R排阻-4D03</t>
@@ -199,7 +241,7 @@
     <t>C9900011903</t>
   </si>
   <si>
-    <t>10</t>
+    <t>12</t>
   </si>
   <si>
     <t>RP2040-Tiny</t>
@@ -217,7 +259,25 @@
     <t>C7437606</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>TPS22918DBVR</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+  </si>
+  <si>
+    <t>C131941</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>SK-3293S</t>
@@ -233,6 +293,24 @@
   </si>
   <si>
     <t>C466006</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>ZX-SH1.0-5PWT</t>
+  </si>
+  <si>
+    <t>XBSMB</t>
+  </si>
+  <si>
+    <t>CONN-SMD_5P-P1.00_MEGASTAR_ZX-SH1.0-5PWT</t>
+  </si>
+  <si>
+    <t>Megastar(兆星)</t>
+  </si>
+  <si>
+    <t>C7430447</t>
   </si>
 </sst>
 </file>
@@ -609,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -667,344 +745,472 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
